--- a/BI MatrizIndicador X Dimencao.xlsx
+++ b/BI MatrizIndicador X Dimencao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafaela\Desktop\B.I\TrabalhoBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09B65DA9-B0DB-894B-AA05-7019F05A2BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{012216BF-7652-3241-8E3B-FDA112AC616A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{45CECD84-376E-4545-B01C-4300E47071C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t xml:space="preserve">Indicador </t>
   </si>
@@ -59,9 +59,6 @@
     <t>Loja</t>
   </si>
   <si>
-    <t>Quant. Media Valor por Filme</t>
-  </si>
-  <si>
     <t>Quant. Filmes por Genero</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">Quant. Locações </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quant. Media Valor </t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -509,7 +509,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -525,19 +525,17 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -546,7 +544,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
